--- a/tools/luban/Datas/Maps.xlsx
+++ b/tools/luban/Datas/Maps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01FC4F-3D31-4D69-B76E-AF45685175A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DF3D14-4430-4CAD-A2EC-495AED35B433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>森林4</t>
+  </si>
+  <si>
+    <t>Skyland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -491,7 +499,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -636,9 +644,15 @@
     </row>
     <row r="9" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
